--- a/CFIS MAPPING.xlsx
+++ b/CFIS MAPPING.xlsx
@@ -158,7 +158,7 @@
     <t>Support type</t>
   </si>
   <si>
-    <t>Financing Instrument</t>
+    <t>Financial Instrument</t>
   </si>
   <si>
     <t>Implementing Entity</t>
@@ -1245,7 +1245,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/CFIS MAPPING.xlsx
+++ b/CFIS MAPPING.xlsx
@@ -158,7 +158,7 @@
     <t>Support type</t>
   </si>
   <si>
-    <t>Financial Instrument</t>
+    <t>Financing Instrument</t>
   </si>
   <si>
     <t>Implementing Entity</t>

--- a/CFIS MAPPING.xlsx
+++ b/CFIS MAPPING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="12700"/>
+    <workbookView windowWidth="29340" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Partnership Plan template" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,161 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>this is called "Name of the project (if applicable)" in the file
+	-Brian Mokandu
+Asumptions
+1.If we have donor agensy but no type of assistance set : Grant
+2.If we have donor agency and no financing instrument. set :Project
+3.If we have commitments and/or disbursements and nor donor agency set: GoR
+4.If project title is "project to be developed" or empty we skip
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>I need some clarification on this.. can we have a call when you are online
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>@bmokandu@developmentgateway.org this mapping is new
+_Assigned to bmokandu@developmentgateway.org_
+	-Julian de Anquin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>this too
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>renaming this to what is being used in the DB
+	-Brian Mokandu
+type of assistance is the name of the field in amp activity form. is how @lmercado@developmentgateway.org wil test
+	-Julian de Anquin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>@bmokandu@developmentgateway.org you mapped this column with Responsible Organization and is implementing agency, please fix and resolve the comment once done. (After i let you know on sack)
+	-Julian de Anquin
+Ah..OKay..
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>and also...this on org type...
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>@bmokandu@developmentgateway.org this one is new too
+_Assigned to bmokandu@developmentgateway.org_
+	-Julian de Anquin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Since the contributions per donor are not specified... We set the first org in the  donors list
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>adding this here as a util to help map Org Type
+Donor Agency types for organizations to be mapped correctly later since this field in the NDC files represents the flow of funds and not org type
+	-Brian Mokandu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Column in NDC files</t>
   </si>
@@ -142,6 +295,33 @@
     <t>split percentage evenly</t>
   </si>
   <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Sector </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">create a sector scheme with the values distinct of Sector and choose the appropriate  To be determined means no sector. The sector's name is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Primary Sector</t>
+    </r>
+  </si>
+  <si>
     <t>Funding Type (Financial
 instrument)</t>
   </si>
@@ -197,6 +377,16 @@
     </r>
   </si>
   <si>
+    <t>Primary government agency / institution
+(full name)</t>
+  </si>
+  <si>
+    <t>Responsible Organization</t>
+  </si>
+  <si>
+    <t>Add the organization if not present from the list of columns</t>
+  </si>
+  <si>
     <t>Funding Source/Institutions</t>
   </si>
   <si>
@@ -241,13 +431,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -277,13 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -292,10 +475,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,7 +506,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -329,24 +536,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +559,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,37 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,6 +622,11 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,13 +637,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,19 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,43 +733,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,85 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,11 +942,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,26 +985,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,145 +1009,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,12 +1435,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:L1008"/>
+  <dimension ref="B1:L1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -1465,35 +1660,37 @@
       <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="I11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="2:12">
       <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -1502,22 +1699,23 @@
     </row>
     <row r="13" customHeight="1" spans="2:12">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="2:12">
       <c r="B14" s="6" t="s">
@@ -1526,87 +1724,115 @@
       <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="L14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:12">
       <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="10">
-        <v>43831</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="2:12">
       <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="2:12">
       <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43831</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="2:12">
-      <c r="B18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="2:12">
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -8534,6 +8760,20 @@
       <c r="I1008" s="6"/>
       <c r="J1008" s="6"/>
       <c r="L1008" s="6"/>
+    </row>
+    <row r="1009" customHeight="1" spans="2:12">
+      <c r="B1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="I1009" s="6"/>
+      <c r="J1009" s="6"/>
+      <c r="L1009" s="6"/>
+    </row>
+    <row r="1010" customHeight="1" spans="2:12">
+      <c r="B1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="I1010" s="6"/>
+      <c r="J1010" s="6"/>
+      <c r="L1010" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8543,5 +8783,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CFIS MAPPING.xlsx
+++ b/CFIS MAPPING.xlsx
@@ -268,7 +268,7 @@
     <t>Sector/NST1</t>
   </si>
   <si>
-    <t>Secondary sector</t>
+    <t>Secondary Sector</t>
   </si>
   <si>
     <r>
@@ -298,7 +298,7 @@
     <t>Sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Sector </t>
+    <t>Primary Sector</t>
   </si>
   <si>
     <r>
@@ -344,7 +344,7 @@
     <t>Implementing Entity</t>
   </si>
   <si>
-    <t>Implementing agency</t>
+    <t>Implementing Agency</t>
   </si>
   <si>
     <r>
@@ -1440,7 +1440,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>

--- a/CFIS MAPPING.xlsx
+++ b/CFIS MAPPING.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Column in NDC files</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>Donor Agency Type</t>
+  </si>
+  <si>
+    <t>Type of Implementing Entity</t>
+  </si>
+  <si>
+    <t>Implementing Agency Type</t>
+  </si>
+  <si>
+    <t>Type of Primary Government Agency / Institution</t>
+  </si>
+  <si>
+    <t>Responsible Organization Type</t>
   </si>
 </sst>
 </file>
@@ -822,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -894,6 +906,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,7 +1066,7 @@
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,10 +1108,10 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,28 +1120,28 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,13 +1162,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1167,7 +1194,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1435,12 +1466,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:L1010"/>
+  <dimension ref="A1:L1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -1464,10 +1495,10 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1491,7 +1522,7 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1500,7 +1531,7 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="6"/>
@@ -1743,7 +1774,7 @@
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
@@ -1766,7 +1797,7 @@
       <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
@@ -1790,7 +1821,7 @@
       <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="12">
         <v>43831</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -1838,15 +1869,29 @@
       <c r="J19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" customHeight="1" spans="2:12">
-      <c r="B20" s="6"/>
+    <row r="20" customHeight="1" spans="1:12">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="F20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" customHeight="1" spans="2:12">
-      <c r="B21" s="6"/>
+    <row r="21" customHeight="1" spans="1:12">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="F21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
